--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/VERMONT_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/VERMONT_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C19">
@@ -685,7 +685,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C23">
@@ -778,7 +778,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C29">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C36">
@@ -1066,7 +1066,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C50">
@@ -1191,76 +1191,6 @@
       </c>
       <c r="D59">
         <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/VERMONT_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/VERMONT_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Santa María Camotlán</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
